--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -75,6 +75,12 @@
     <t>Learn how to translate the magnitude of each accelerometer axis back to its original axis using the gyroscope data.</t>
   </si>
   <si>
+    <t>Add the specific device ID to the data file's title so we know which accelerometer or gyroscope produced the data that created each file.</t>
+  </si>
+  <si>
+    <t>March 29, 17 - April 05, 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
@@ -85,9 +91,6 @@
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
-  </si>
-  <si>
-    <t>Add the specific device ID to the data file's title or write them inside the file so we know which accelerometer or gyroscope produced the data that created this file.</t>
   </si>
   <si>
     <t>Add a key to the beginning of each data file that must be matched before the software tries to graph it to protect against loading improper files.</t>
@@ -413,22 +416,22 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
+    <row r="12" ht="38.25" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
@@ -437,28 +440,30 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -470,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -482,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -81,13 +81,19 @@
     <t>March 29, 17 - April 05, 17</t>
   </si>
   <si>
+    <t>Modify the formulas used in the Calculator class to the formulas in the project notes.</t>
+  </si>
+  <si>
+    <t>Met up with Mickey to collect fresh raw data files such as riding the elevator, going from one side of the hall to the other in the ET, and other controlled tests.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
     <t xml:space="preserve">March 29, 17 - </t>
   </si>
   <si>
-    <t>Modify the formulas used in the Calculator class and apply the rotational matrices to re-orthogonalize the accelerations based on the gyroscope data.</t>
+    <t>Apply the rotational matrices to re-orthogonalize the accelerations based on the gyroscope data.</t>
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
@@ -431,58 +437,62 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" ht="25.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" ht="25.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="51.0" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -494,20 +504,28 @@
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+    <row r="18" ht="38.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+    <row r="19" ht="51.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -623,26 +641,28 @@
       <c r="F33" s="5"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="12"/>
@@ -7391,6 +7411,20 @@
       <c r="C1000" s="12"/>
       <c r="D1000" s="12"/>
       <c r="E1000" s="12"/>
+    </row>
+    <row r="1001" ht="12.75" customHeight="1">
+      <c r="A1001" s="12"/>
+      <c r="B1001" s="12"/>
+      <c r="C1001" s="12"/>
+      <c r="D1001" s="12"/>
+      <c r="E1001" s="12"/>
+    </row>
+    <row r="1002" ht="12.75" customHeight="1">
+      <c r="A1002" s="12"/>
+      <c r="B1002" s="12"/>
+      <c r="C1002" s="12"/>
+      <c r="D1002" s="12"/>
+      <c r="E1002" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$D$2"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -81,7 +81,7 @@
     <t>March 29, 17 - April 05, 17</t>
   </si>
   <si>
-    <t>Modify the formulas used in the Calculator class to the formulas in the project notes.</t>
+    <t>Modify the formulas used in the Calculator class to the formulas in the project notes. Essentially, refactored Calculator.</t>
   </si>
   <si>
     <t>Met up with Mickey to collect fresh raw data files such as riding the elevator, going from one side of the hall to the other in the ET, and other controlled tests.</t>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Apply the rotational matrices to re-orthogonalize the accelerations based on the gyroscope data.</t>
+  </si>
+  <si>
+    <t>Continue refactoring code and cut down the ever growing method of the Calculator class called calculateValues()</t>
+  </si>
+  <si>
+    <t>April 05, 17 -</t>
+  </si>
+  <si>
+    <t>Add the ability for the Calculator class to detect the offsets in the raw data and 'calibrate' each axis based on an average taken from the first several readings.</t>
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
@@ -493,55 +502,65 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="38.25" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" ht="51.0" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+    <row r="20" ht="38.25" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="21" ht="51.0" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -657,26 +676,28 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="12"/>
@@ -7425,6 +7446,20 @@
       <c r="C1002" s="12"/>
       <c r="D1002" s="12"/>
       <c r="E1002" s="12"/>
+    </row>
+    <row r="1003" ht="12.75" customHeight="1">
+      <c r="A1003" s="12"/>
+      <c r="B1003" s="12"/>
+      <c r="C1003" s="12"/>
+      <c r="D1003" s="12"/>
+      <c r="E1003" s="12"/>
+    </row>
+    <row r="1004" ht="12.75" customHeight="1">
+      <c r="A1004" s="12"/>
+      <c r="B1004" s="12"/>
+      <c r="C1004" s="12"/>
+      <c r="D1004" s="12"/>
+      <c r="E1004" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$D$2"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -87,13 +87,16 @@
     <t>Met up with Mickey to collect fresh raw data files such as riding the elevator, going from one side of the hall to the other in the ET, and other controlled tests.</t>
   </si>
   <si>
+    <t>Apply the rotational matrices to re-orthogonalize the accelerations based on the gyroscope data.</t>
+  </si>
+  <si>
+    <t>March 29, 17 -  April 12, 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
     <t xml:space="preserve">March 29, 17 - </t>
-  </si>
-  <si>
-    <t>Apply the rotational matrices to re-orthogonalize the accelerations based on the gyroscope data.</t>
   </si>
   <si>
     <t>Continue refactoring code and cut down the ever growing method of the Calculator class called calculateValues()</t>
@@ -473,22 +476,22 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="25.5" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7"/>
@@ -497,7 +500,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -507,11 +510,11 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -519,12 +522,14 @@
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -532,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -544,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -556,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -102,6 +102,12 @@
     <t>Created multiple graphs of data files generated by the back end using R-Studio to get a better understanding of what is being calculated.</t>
   </si>
   <si>
+    <t>Find a way to calibrate the data that doesn't cause drift inside the rotational matrices. (Fixed rotational matrix code)</t>
+  </si>
+  <si>
+    <t>April 12, 17 -  April 19, 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
@@ -112,12 +118,6 @@
   </si>
   <si>
     <t>April 05, 17 -</t>
-  </si>
-  <si>
-    <t>Find a way to calibrate the data that doesn't cause drift inside the rotational matrices.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 12, 17 - </t>
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
@@ -530,22 +530,22 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="8" t="s">
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -108,6 +108,9 @@
     <t>April 12, 17 -  April 19, 17</t>
   </si>
   <si>
+    <t>Added some filtering to the acceleration values to ignore small changes and thus omit the noise.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
@@ -118,6 +121,12 @@
   </si>
   <si>
     <t>April 05, 17 -</t>
+  </si>
+  <si>
+    <t>Add the ability for the user to adjust the filtering values and the number of lines averaged when computing a flight.</t>
+  </si>
+  <si>
+    <t>April 19, 17 -</t>
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
@@ -545,79 +554,91 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7"/>
       <c r="E19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>35</v>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" ht="38.25" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>36</v>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" ht="51.0" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    <row r="24" ht="38.25" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+    <row r="25" ht="51.0" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -733,26 +754,28 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
@@ -7501,6 +7524,20 @@
       <c r="C1006" s="13"/>
       <c r="D1006" s="13"/>
       <c r="E1006" s="13"/>
+    </row>
+    <row r="1007" ht="12.75" customHeight="1">
+      <c r="A1007" s="13"/>
+      <c r="B1007" s="13"/>
+      <c r="C1007" s="13"/>
+      <c r="D1007" s="13"/>
+      <c r="E1007" s="13"/>
+    </row>
+    <row r="1008" ht="12.75" customHeight="1">
+      <c r="A1008" s="13"/>
+      <c r="B1008" s="13"/>
+      <c r="C1008" s="13"/>
+      <c r="D1008" s="13"/>
+      <c r="E1008" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$D$2"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -111,6 +111,12 @@
     <t>Added some filtering to the acceleration values to ignore small changes and thus omit the noise.</t>
   </si>
   <si>
+    <t>Add the ability for the user to adjust the filtering values and the number of lines averaged when computing a flight.</t>
+  </si>
+  <si>
+    <t>April 19, 17 -  May 03, 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
@@ -123,10 +129,10 @@
     <t>April 05, 17 -</t>
   </si>
   <si>
-    <t>Add the ability for the user to adjust the filtering values and the number of lines averaged when computing a flight.</t>
+    <t>Start writing angle displacement data files to accompany the gyro's velocity data files already written.</t>
   </si>
   <si>
-    <t>April 19, 17 -</t>
+    <t xml:space="preserve">April 26, 17 - </t>
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
@@ -567,22 +573,22 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="25.5" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7"/>
@@ -610,43 +616,49 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" ht="38.25" customHeight="1">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" ht="51.0" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+    <row r="25" ht="38.25" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+    <row r="26" ht="51.0" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -770,19 +782,20 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
@@ -7538,6 +7551,13 @@
       <c r="C1008" s="13"/>
       <c r="D1008" s="13"/>
       <c r="E1008" s="13"/>
+    </row>
+    <row r="1009" ht="12.75" customHeight="1">
+      <c r="A1009" s="13"/>
+      <c r="B1009" s="13"/>
+      <c r="C1009" s="13"/>
+      <c r="D1009" s="13"/>
+      <c r="E1009" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$D$2"/>

--- a/KanBan Board.xlsx
+++ b/KanBan Board.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>RockSat-C</t>
   </si>
@@ -117,6 +117,12 @@
     <t>April 19, 17 -  May 03, 17</t>
   </si>
   <si>
+    <t xml:space="preserve">Although it never ended up providing reliable readings of acceleration, Calculator now writes the ADXL377 unit's acceleration values to their own data files without doing any calculation with them. </t>
+  </si>
+  <si>
+    <t>May 03, 17 - May 10, 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the results of the calculations done inside the Calculator class when converting from the raw flight file to data files. </t>
   </si>
   <si>
@@ -136,9 +142,6 @@
   </si>
   <si>
     <t>Add Exception/Bug logging to the back end of the software.</t>
-  </si>
-  <si>
-    <t>Add a key to the beginning of each data file that must be matched before the software tries to graph it to protect against loading improper files.</t>
   </si>
 </sst>
 </file>
@@ -587,22 +590,22 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="7"/>
       <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="8" t="s">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7"/>
@@ -630,35 +633,37 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" ht="38.25" customHeight="1">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" ht="51.0" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -782,20 +787,19 @@
       <c r="F41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
@@ -7551,13 +7555,6 @@
       <c r="C1008" s="13"/>
       <c r="D1008" s="13"/>
       <c r="E1008" s="13"/>
-    </row>
-    <row r="1009" ht="12.75" customHeight="1">
-      <c r="A1009" s="13"/>
-      <c r="B1009" s="13"/>
-      <c r="C1009" s="13"/>
-      <c r="D1009" s="13"/>
-      <c r="E1009" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$D$2"/>
